--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/66_Sakarya_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/66_Sakarya_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCFC0EE-59DE-4910-BECB-B1135842E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{610541CE-2C7F-4955-979D-40321A12FC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{FD56D0CC-503D-49EC-8E22-3139AC1B6731}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{64B9D50E-DEF5-4EC8-A932-0D45FD1E970E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -950,13 +950,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{67F5CB95-9746-47ED-8CCF-CC7495B319D0}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{58A7413C-2819-4FEC-9C06-9E3B9CFEBD2A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EA32FDE4-7ED7-42C3-8A2B-F52AAFE37EF5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6C151832-6CE3-45D1-8143-BCA4B3C04C77}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3BFB7745-5A4E-4B19-8EE2-4C4E4239FBCE}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{4BB7EC31-7109-4034-9C2F-3C4608A959E4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C2B6EC50-43D5-48A9-8319-F91873A98637}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{CD0D59E6-8E83-4770-9537-58339A15F4EE}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BFE7D4F6-77DE-4B28-9811-B0B928788D4A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{8CFF2588-6EDB-4E57-ADA4-020E1DB0EF89}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D1E5A1A2-B77B-4D62-9614-EA299A076735}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D40A7621-F2DF-4D6C-A85D-29C0477631C8}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{7E7B1ECF-7067-482D-9632-4DEFCDB5D785}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{23B9E7AB-AD2F-4CCB-8A47-9FE1A2F43435}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052BF296-74F5-41B3-9AA3-97E11F84B8FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5779E3EC-AEEF-46F8-BCC6-E70F7649BCB4}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2586,18 +2586,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1B12E62-FCFD-4023-8B36-88415E061E21}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB526AE2-D1F3-4DE1-BD25-EC798B162EF5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{98DFA9B3-F76A-4BF2-A978-BFF56B1B05B1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C1BB3CDB-1DF9-4EC3-AF92-3DE366E70359}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{753646D8-497B-431B-B0E5-21F86DD41C3E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{599D89A1-0EC4-42AE-BA3D-B3762D4CE954}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{769D6154-1B26-4EF7-BC3F-5D558343A5D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{493A6668-F0DE-4C73-BDEC-C64AA245FD70}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2DB9D899-2299-47B2-B124-FC096B97730D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8F6BF25-7C41-463C-BEDA-C812C6AA40BE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8BEAC50-EFC5-4EF7-8E73-8BC11172AEB8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C911DDAF-C4EE-4DF8-86EE-A897FB4A7818}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76B187E2-AC3E-4CBC-8608-7D568B570A77}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F85D0C6-0EF4-42D3-9226-D829D38B230B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D86D661F-403F-4287-9D39-CF17E002DC8C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A372C60-DEA7-4C92-B6E0-DC33D84CEC9C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5433CE11-FF99-4142-9257-5050BFD82783}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82309605-1888-4735-B84F-90DB073B01C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BD7EF6F-5EEF-4E34-9D7C-7A4A940DF327}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14F9A5A6-4796-42CD-8CD7-2EB9CCAB9ECF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC371EA6-6FD0-4A51-9E15-1ECF9954BD41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CF628C28-1CB1-483B-A94D-53D45399A353}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72F334B9-B0C2-474C-99BE-B556866073B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{90804078-A2E3-4309-883B-278550F11BDB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2610,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C8BE67-1D19-4EB1-A4F4-D56853299004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AE6225-1E81-4FC6-A193-0EA71F1C4B3F}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3846,18 +3846,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{175F18D3-82A1-4D15-950E-CBFD1EAE1493}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{485119BF-97D9-4AC5-93AB-7BFEAA6B7DD4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3D0C07DB-ACD7-4144-B0A1-56C396440005}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5ACC4020-4A05-4D93-99D9-586A27BA73B0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC73A98A-5436-4F04-9207-B8B51F745413}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F8B66FD6-3659-44FD-8673-C6C3D139C9A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{879A4A80-5313-4A75-9C1E-30CACEF9558F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06772FD6-8D32-4C31-955C-80D7BDD7358C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{710D289C-3C2E-40FB-AEA1-547607803AF6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{95CDF372-5E4E-4748-93A3-77120B770647}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E793D44-DF3A-482A-B7E3-0662C84EDF99}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BC38601-E954-463B-82C2-F9758BCC9452}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E095BB57-855F-4C7A-A09C-EBC5DBB5CDA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{609AE58D-8243-4A54-92AC-66135C2FA0C5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC04A5C5-CF3C-4756-AB56-993C136F189F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{05BD3FF8-81D3-4235-AF5B-39A4986350CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D2F2058-38D6-4326-8C3C-2B0C52F833F6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49A5C645-6541-4257-BC94-4C7E06BF002C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A236FF41-E94A-40BD-ABC3-C47781FC1571}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{21F25892-BDE3-4083-82A7-E8F49D9FB475}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B2D7CC0-2FEB-43CE-926D-151B67E8CC37}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{76A028ED-1D59-44A6-9653-51D7C9B92561}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25E868BB-B9CF-4C4D-A6FC-2622A3A788B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{25A961CE-46DD-4BEB-B013-01D9CBA55C29}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3870,7 +3870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC202B7C-A24C-4F2E-9927-FFCA8F9EE8F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC2C8AF-5733-42F9-8FD8-3E251AFDECB4}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5106,18 +5106,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{274CE788-57AD-40EF-9C4C-8CF5C75349D9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF7DA3FD-B592-428B-BAB0-28494EBA1C8D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1A3825C4-F081-4248-B7D3-791FCA65280D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AE968B77-B464-4A62-9871-35D7D17672D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{126B2433-FD8A-4F51-9A0F-F76F58AFDBE2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E131F119-34CC-4D19-922D-2B483CCCFB9F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FF40FA3-EA79-4F99-A773-9ADBD2EB482B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{38DA1334-1976-4F0A-B0E2-CD6FD89932AF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{16D91664-3B93-4392-906E-C0E4F76883BA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{333CB8DB-0B9C-47CA-B5B3-BD84E890B89F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{679DCA25-DE07-47CA-8F77-CF228A0BAA50}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C68BA20-4B76-4622-A552-9A4353D3A0C7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D68A80A0-3293-4171-97B5-7518F0F2BE4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B6A5C81-752F-4234-9F2C-8779A0E40986}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{789B9834-6610-45A0-9DA3-2153553F9EE7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2ADEC0F3-093D-4849-807D-385E8EA651F0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5954F6C-E181-4899-9CC7-3986EB30A522}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E32F63D-16BD-422A-A301-C6BFD07CC552}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2794CFC8-E198-493D-8682-00C6297E77AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC3DFC9D-A04E-4879-B35E-A290639A68D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6BBFE26-6EA6-452E-AF16-C39666E75105}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B86F90C-E044-4F16-93D0-88CDB9C8BA70}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B49ED040-8EE9-4ADE-BB13-FF892F9FE0F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30BC6099-FB3F-47AE-BF0C-04B4120D2EE7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5130,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA55C974-D11C-4D5A-90BB-568FC670E72E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6211127F-B8DE-4A1E-ABF2-E4EF2F8A3720}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6366,18 +6366,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69D8265B-2048-4823-BC75-BC89A1B8FF5A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27090367-3B71-4AB8-83BD-4AA37C5303E6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{12BECA71-B772-4C1C-81D8-C077200ABF39}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{106FE947-FD05-4938-B874-2F6030890326}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC749FE4-CA9B-44D6-A8E8-51444F274FCE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{92608754-F787-43A0-9959-030086A66C61}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{167E4B4F-B11E-4D77-95C8-9CE3061BC994}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64012743-E285-4DF2-BFB7-02F577111F1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A9C02C8B-AB24-4138-A87D-3CF15867D40D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12FE0D72-663B-4425-959B-0D31C52C3FC6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7B27FBA-3CF1-4575-B592-C2256079353D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BCE7A437-6D15-4C79-B241-346C6D3D7EF9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A54EDE6B-4661-4549-B569-33A51B288ADD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFB705E8-B5AD-4881-B154-0DE0385B097C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F081F1A7-0CAE-43EE-ACAE-35FBC0D8338C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC275353-AAEA-4879-A488-2261F445D5E4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B078514-AEC1-49C2-8395-4FD718721DF0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{73D2CF55-437A-47BD-B42B-042B40BCDD63}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{986D2125-12AD-4BF5-AF6F-EB90C1D4BE51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3E41500-6569-405E-9C28-9EC1B9371C1C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD84DF2C-6E4A-4B93-9E28-39D1CF66AB9A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9DB5A5E9-8AD5-491B-8DBA-7F8433D8F60A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6E62659-17F9-4A50-9A89-CD909B1EC0C6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A2018DF-42DF-4CDA-974A-E56CB19313B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6390,7 +6390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C9484-C99F-414A-9F5E-714ECC449DA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA86FAB-55E0-43FF-A9E7-6311F66503FD}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7650,18 +7650,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A923A966-C9B0-4706-8D85-8B70D3DAD248}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1212849-CACB-4B32-90D0-59607848C879}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F47C5759-E949-4D9A-A476-1ED8C37B6766}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C17D1ED1-298E-439A-A579-7B940676940E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D76B8BB-2A22-4A1D-A852-247BF7F31EB1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{640A7A8B-59F1-44E8-91DD-161E16E4D1BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27490F64-E2E0-4ECC-96A2-3B7B260E0399}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49A89E90-DD9D-4A1F-BEB7-FCF295DD5B19}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E90A417F-B489-4F32-BEC4-EA03A1C5D17F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{91594E55-C19B-4EC6-A56E-FCFA2388F1BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{780538E5-3F3F-4FE4-9C19-6CEEC881485F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02146664-3EF2-4ED4-9B24-1A89CD1FF393}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE8E9BD2-171A-42F4-BBE5-967DED7DD32D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E044AEA-ED97-42C2-B4AE-3AE02CC9CE18}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E6C8B4E3-76E4-4CC0-AA4B-8D69BDEE62BA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{99335D48-3064-44F6-8C0E-B491962D9552}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C16DE409-E42D-45EC-B85E-A86381FB45DE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC10E5F2-9E00-43F3-966F-0D3E0019912E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{83AC5DB6-8A6D-474D-9D1E-8B81399A3390}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6F474E0-67D2-4988-B458-82C507EA6840}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7D1BBCE-BAE7-4347-9C4D-564D52F92C72}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB370298-E420-42E6-BF9A-8CC9E4850534}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7F7C5A9-C01A-4FBA-B2F6-45217792BF64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3176461D-BAE6-4C11-B42A-7CC8BD8F8364}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7674,7 +7674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4146B03-C920-4A71-9603-A20F5C640AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE3D1A0-43AA-41FC-82A5-E7E743D15B4F}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8930,18 +8930,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{141A2C95-105E-454C-BCF0-5B581ED2FD87}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60DE0B45-8D13-4EB1-94B7-7AE2FCAA59EF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DCCD956A-14D5-41FF-ABBC-32B9FF813097}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DBA1F53F-7D1F-4A7C-B8B6-ECB1333678A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64E5565B-7698-4F63-B74D-DB292741ADA5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D04952E-516C-4379-A2C8-64C10A47281C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07287CD1-3A54-4E43-98FF-E3503BEC9776}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B840EA7-19B7-45B1-B990-D75E840817E7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{98A53FD8-9CA2-4D55-98D7-0DCE7C7A31A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C32BFFE-5316-4C98-AAE2-E18EB808E49F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FBFC18C-3193-47FD-B52C-56AE78CEC8D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB4B549A-CC21-40C6-B2C0-4952AB7CD1FF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF7B17BB-30E7-4FBC-8E14-BC8EF7BDAB25}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B6C53D9-67D3-45EE-9B92-96041E63B584}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FBA072D-4801-4CB8-928A-C8A04EC23100}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7B3694A4-D272-44AB-B83C-CD8AEA9970A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47C42F3E-27AB-4CE4-BF70-FC12548F7510}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A915C7D-325E-4514-994F-65A043B40FD2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39B43701-F84C-49CB-9F73-36A588E93235}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86333EB8-D377-44B5-8BB0-1517D8CD8955}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF2C58F0-5544-4E8E-84BD-D3FFE7D6262D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BE10B58A-63CC-4947-B82A-6C7D8E10E600}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B3E73A1-2D7E-4646-87F8-892E69F5FED8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7836D9F7-A1C8-466D-A4F4-DA4A5BA296B5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8954,7 +8954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BFAC48-5FEC-4C3A-8206-AD3B3A9AB739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591ABEE5-BE24-4E4F-90A0-AE725DB4076C}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10206,18 +10206,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6B5FBFB-887A-4406-8663-BE7E1420F709}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB78D3F0-960C-42C3-B95F-0A5A59EF1815}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4512D45F-2861-4015-A077-595D49798BA9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E0833C60-C88F-406D-AFBE-2881CCF677F9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C29B992-7DD8-4863-94FF-6DD017C62FCD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA617CF7-0A39-4C64-836D-53E39F49B12F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CF539C1-E3A1-4DCA-BDBB-EA681ECD81FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B80B915F-9795-40E6-A506-B59FC71312EE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D42D29FF-ADAE-4240-8E9C-8ED2D1489C02}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E4A1B21E-A0D7-463A-9D39-D9F884A4217A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C78EECB-DB86-4BD9-BBA7-49A92FD44B90}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B366DD1D-9B7F-4D0C-937F-C958020778ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A94D0BD5-2A9F-4617-B65B-D68690E806A7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05E17283-2307-40C7-9503-67692B82EB9E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{13122372-A33D-464A-A34B-0C4326FE9FF7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA03EFF1-0FA7-4F9A-BC83-0CD2A0E9F2A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39D89A4B-C4AA-46B6-9D24-D06C27B9E6AC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1B2A1C3-89AF-4726-865F-40F484ED7000}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65666BAB-4465-402B-9D0B-B5569D006BA3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE700091-A5CA-4EFB-B111-5B6C562A5352}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA319FA6-2B7F-4A4A-8D54-28EF9B22257B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F4B6120E-5662-4721-AD0B-88781FEC6E5C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C243579-51D0-4036-BB90-52042A7C49C9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2703D6FA-4632-46A3-ABBD-FB7339582840}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10230,7 +10230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D7A16-5A55-421E-9754-816829B6174B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096EEBCF-33CF-4A5E-94FC-414C30FEE666}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11482,18 +11482,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45244C5F-4A13-4C94-86D7-FD9B24BE8BFE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4B71808-6664-4EDE-9640-D2605BC5E418}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{007C6BF1-CB47-4947-9399-1EBB4620334D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1E902BF8-8977-4BBB-ABBA-BCE14C7AB921}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F6371988-43F3-4C33-955C-732B08265433}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ED03C631-3A1E-45F4-B28C-602115F529FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E6EC469-C421-45B3-8729-4336CA63435D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27F3B038-9EB8-42E4-B137-4BAA72B587F9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F01940B1-7A52-4DB9-8F0B-088D0D6B9CD9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0CE634CB-B673-460A-8D39-E19AE6F27F11}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F8FA701-D086-4374-8D5D-F03566D72120}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0394C0F5-FF5B-48D6-9F48-F57298D5D11B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{436A8B68-F10C-4A40-9EA6-4264A1F68935}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E2A3F8D-5DCA-44A5-B0A1-7EEF0E7E777E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8D01F07-A984-46D9-A09E-1DE37E1C2B86}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{363E202D-D8B2-40FB-AADE-5561E97BB1E1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83E54CB6-36D0-4DFF-B83C-F6D05845539E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CDD3C6D8-F883-4BED-8782-4540B8D58878}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A016E30-B4AB-483F-89D1-0118E55067A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{125B8EB5-7DC0-4D71-973D-42427C4C8FC3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{503F8172-426E-4F79-BFE5-DF468DF5A17F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6858FB63-6021-4B65-90A0-CEF34791FB6E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BDE2191-A52B-41F4-B43A-6E26767CBA09}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76A7F1BD-ED9A-4CE4-8F4D-960C3A5012BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11506,7 +11506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D019FF-F0AA-466A-8BA2-C6811C051F50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60763A36-7CD1-4342-8760-33CA0D9EF373}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12746,18 +12746,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DB71E59-DF3C-442D-8DDB-D0F0F98235D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E8283FE-B16F-4052-989F-A7E192FA77D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9EF5E62D-D5FC-4530-B59B-A6CE8114E04D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7E951DD9-4216-453A-B915-662251CC5727}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77CC4879-18DB-4015-99D3-08925D362301}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0373FB68-D1F6-4ED1-B3E2-9C35E434E65E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AEB032A-E2B6-4C2C-8816-0ACD8669968C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0224BB1D-973A-4BF1-805E-BE9966C68A8A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F38014A-DDF4-4440-8022-F6FEACB3FCAE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A4D6BBF4-CBCB-4D08-8769-AEF0D60F5B7A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C2597EC-E525-4967-BB41-9ADE009911A9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{401D8A95-2874-465D-81D1-D5F3A808B19C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC5A6609-9F7B-42F3-BDF5-38C7F15BB505}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE2CCBAF-6795-43A9-BFEF-D93A0956476E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27016838-4A1B-4064-B29E-441CB7B26EB8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2F7CFFF7-4AE0-4DAA-8C57-0B5B3CC48100}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{070B1DA7-CC6B-4914-B6E8-201BDC412790}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03A8B0F5-FB19-4783-A61D-3D7B039A2A88}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21251398-76D0-442A-A9D7-9D6E92E6E2C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80BC4231-6F82-49C3-BD37-3F159888236A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{886AE51F-D4AC-4CC2-A76F-742912F7892D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3E3E4B8-D67B-4812-B300-922D5EE803F7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F711F4D1-BF28-4838-89D6-4D925BFA8429}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD087CF6-7977-435D-971D-028695B86BE5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12770,7 +12770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF93E8D-0B40-4BEF-B8E5-A20B08642A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7187BAA-8458-44CA-8CE1-A1E7231F1E77}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14010,18 +14010,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5F385EA-03BA-444F-B151-B57F71273D2B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21E84DB0-186A-4286-A9CB-F3F3924444E8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7B71C982-7DE1-48FD-9DB6-A2FC06698D12}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{47241427-643C-45B6-A43D-23A5590874A0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE432776-62AA-49FB-8C95-57CFAF14A46E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36C0AA4C-124C-4F26-9EDB-8C3E9875FA80}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BDF119D-2697-49FD-9053-DA98E1F6C2FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DDA735E-73EB-426B-822A-B929378C5B25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6D22C33-FE8B-4E67-A835-7C2C2C8CFE9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E3EBE83-E862-43E7-8F25-C77F5F23B77C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E38826F-334E-4373-9038-C6E6E5E755C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52787CCA-5E9B-4DF9-8526-57456AC43DC0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F056815-2CC1-4B60-927F-098BDE563797}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BC1B229-88F1-4CC6-80C0-523DFC8427A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{41CDEA6D-3D19-429B-BA60-3153CF877A51}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{006DB5EE-4D5A-47B2-A80F-41CB362E1586}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87EC51C1-975D-4235-825B-EB3990094A22}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1221272-15B1-40BC-B23C-4CE2AA210571}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE8CE1CC-84C8-49CA-9622-7CE350AC6DBC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD9F0F64-8368-4A79-8C8F-636F957C0BBB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72E7EFC5-957A-462B-B44A-A83B4D40CE50}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C41C075-AC57-4E4E-8394-5E08FFAECAE4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE5D4F5B-99C1-4FC4-93C3-90CCEACE5791}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8712F656-C13A-404B-BBC1-9EFB9C6109D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14034,7 +14034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2267E1-2211-407E-B7FC-6B1A20D19A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C00BFA7-61BE-457A-BDE5-30DD6A765A39}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15274,18 +15274,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A566DEB-739E-44BD-AECC-7CA078829E6F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD7DB587-2BB3-4E09-B588-0424B90CBF10}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C0DDEB18-3A73-4CC9-B3C6-DC833F83837E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{217DE0F8-FEBF-4351-807C-1B2CFFF758D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A081E616-774F-4EC5-A1C3-54378E08F5BA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40F26B66-5B64-4836-939E-3A2F20B32093}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C860CF46-813F-4EAD-9BA0-3CD1D0A93438}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{443BDF39-309C-4D25-B616-523F50A31928}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73974160-A960-4A7F-8615-302997790A19}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1FE6E27-F519-42B4-9BEF-CB7D4D1B579E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A967894-5038-4327-8F62-263A5698E671}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FDF51CE-D0C2-4612-90EC-85265EA7176A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5E8BBF9-C36B-4303-9F8D-5A5772062573}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A9E6943-A0F9-4004-B4C1-3AD73C87B9FC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0EF6294-C261-4BDA-BA65-723A6A4438BE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8BD4749C-577F-457F-9332-130FD176727A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6657CD1C-2782-42D0-992B-9E3CF76EE9DB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E8E76F4-D2F3-4078-AA1B-F674D49E48A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC18BDBE-AD04-4FD4-B450-70E539B66139}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43762E2B-8867-4734-B536-D166FEB90CD7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94EE5BFD-2FDF-44C1-8CBF-31DF796B5CAD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2472BA63-0E18-4093-B54E-E7E5A419ED97}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DFBA4F7-3094-4BD9-B557-F9C16E45C947}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E5C495E-8586-4757-836D-812EB1401696}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15298,7 +15298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F8F21B-C007-455E-9584-5FCDBD2AC40C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1630D1C-EAF0-4F2D-B601-F88F5E07BE13}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16538,18 +16538,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7BBCB9B3-1F4E-4EBB-A793-2F214F2416BF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E7C5D9E-6C1E-4140-AC2F-C0F0FA4C67AF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4265BF69-E439-40A2-81B8-01A224554533}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CCA84A76-4909-4A44-8F3B-AA220579A5A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C38D5ACD-A43F-4D28-BB5C-A9D6B2F1D9C5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39DA0F60-E4B5-44DA-A7CA-D638D3F0132A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5217BEDA-9637-4652-8BA5-8B607C251415}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70E40ABB-A7AA-4488-9E12-3BAF4F02195A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35C1D6DB-E2A3-4645-83E2-ECCFC50EEA29}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{344449F9-89D5-4C5C-885A-DDA0454A2BF1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F789A99-6B4B-4BF9-AD7D-AA3F8909C4B9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BCF1FFC1-BAF0-46E5-8C2D-6A6F9ADBA0AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{705768C4-765B-465A-A7A3-0B1095A37E1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DE0403D-DAFC-4B3C-9689-44EC48217426}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC4EFC95-01F4-4FC7-8278-426DC95A0539}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{37E93C75-4A9F-4C73-AE1C-7B6E557EB180}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D85DACF-8AF4-4071-A8B0-0C1100F309F3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA06A4D3-ABE6-4573-AFF3-8F3F807EAAD0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B7515B0-C83A-46B1-A487-DCA2ACE50538}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB3F8108-AD5F-4C19-9AD1-8C0763E55C03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3A2AD7B-5149-491A-B90F-CC572D4887FE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{48C5CDE1-9771-44D1-8D44-50A2D6C5E365}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9AFD2EA-F7CA-4399-ACDB-18D2DBE54AE8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83DF41AB-C987-4BC5-9074-84FAB5D71794}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
